--- a/ems/document/维修任务报表/设备维修明细报表.xlsx
+++ b/ems/document/维修任务报表/设备维修明细报表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18600" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>项目组</t>
   </si>
@@ -67,19 +67,97 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：项目组指的是什么？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：编号指的是设备的编码还是维修单的编号</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>维修时间指的是维修时长吗？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4：维修次数指的是这个设备一共维修了多少次吗？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：返厂时间和返回时间的区别？各指什么意思？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：是否打包时什么意思？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -89,12 +167,32 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -130,7 +228,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="104">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -143,49 +241,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -444,119 +527,124 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="102" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="102" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="102" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="97" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="97" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="97" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="104">
+  <cellStyles count="99">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 10" xfId="9"/>
+    <cellStyle name="常规 11" xfId="15"/>
+    <cellStyle name="常规 12" xfId="13"/>
+    <cellStyle name="常规 13" xfId="19"/>
+    <cellStyle name="常规 2" xfId="21"/>
+    <cellStyle name="常规 2 2" xfId="24"/>
+    <cellStyle name="常规 2 2 2" xfId="25"/>
+    <cellStyle name="常规 2 2 2 2" xfId="27"/>
+    <cellStyle name="常规 2 2 2 3" xfId="29"/>
+    <cellStyle name="常规 2 2 2 4" xfId="30"/>
+    <cellStyle name="常规 2 2 3" xfId="31"/>
+    <cellStyle name="常规 2 2 4" xfId="26"/>
+    <cellStyle name="常规 2 2 5" xfId="28"/>
+    <cellStyle name="常规 2 3" xfId="8"/>
+    <cellStyle name="常规 2 3 2" xfId="32"/>
+    <cellStyle name="常规 2 3 2 2" xfId="36"/>
+    <cellStyle name="常规 2 3 2 3" xfId="39"/>
+    <cellStyle name="常规 2 3 2 4" xfId="40"/>
+    <cellStyle name="常规 2 3 3" xfId="41"/>
+    <cellStyle name="常规 2 3 4" xfId="42"/>
+    <cellStyle name="常规 2 3 5" xfId="43"/>
+    <cellStyle name="常规 2 4" xfId="14"/>
+    <cellStyle name="常规 2 4 2" xfId="18"/>
+    <cellStyle name="常规 2 4 3" xfId="35"/>
+    <cellStyle name="常规 2 4 4" xfId="38"/>
+    <cellStyle name="常规 2 5" xfId="12"/>
+    <cellStyle name="常规 2 6" xfId="17"/>
+    <cellStyle name="常规 2 7" xfId="34"/>
+    <cellStyle name="常规 3" xfId="44"/>
+    <cellStyle name="常规 3 2" xfId="10"/>
+    <cellStyle name="常规 3 2 2" xfId="11"/>
+    <cellStyle name="常规 3 2 2 2" xfId="3"/>
+    <cellStyle name="常规 3 2 2 3" xfId="23"/>
+    <cellStyle name="常规 3 2 2 4" xfId="46"/>
+    <cellStyle name="常规 3 2 3" xfId="16"/>
+    <cellStyle name="常规 3 2 4" xfId="33"/>
+    <cellStyle name="常规 3 2 5" xfId="37"/>
+    <cellStyle name="常规 3 3" xfId="47"/>
+    <cellStyle name="常规 3 3 2" xfId="49"/>
+    <cellStyle name="常规 3 3 2 2" xfId="50"/>
+    <cellStyle name="常规 3 3 2 3" xfId="51"/>
+    <cellStyle name="常规 3 3 2 4" xfId="52"/>
+    <cellStyle name="常规 3 3 3" xfId="2"/>
+    <cellStyle name="常规 3 3 4" xfId="22"/>
+    <cellStyle name="常规 3 3 5" xfId="45"/>
+    <cellStyle name="常规 3 4" xfId="53"/>
+    <cellStyle name="常规 3 4 2" xfId="6"/>
+    <cellStyle name="常规 3 4 3" xfId="54"/>
+    <cellStyle name="常规 3 4 4" xfId="7"/>
+    <cellStyle name="常规 3 5" xfId="48"/>
     <cellStyle name="常规 3 6" xfId="1"/>
-    <cellStyle name="常规 3 3 3" xfId="2"/>
-    <cellStyle name="常规 3 2 2 2" xfId="3"/>
-    <cellStyle name="千位分隔" xfId="4" builtinId="3"/>
-    <cellStyle name="常规 4 5" xfId="5"/>
-    <cellStyle name="常规 4 2 3" xfId="6"/>
-    <cellStyle name="常规 3 4 2" xfId="7"/>
-    <cellStyle name="常规 3 4 4" xfId="8"/>
-    <cellStyle name="货币" xfId="9" builtinId="4"/>
-    <cellStyle name="常规 2 3" xfId="10"/>
-    <cellStyle name="常规 10" xfId="11"/>
-    <cellStyle name="常规 3 2" xfId="12"/>
-    <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
-    <cellStyle name="百分比" xfId="14" builtinId="5"/>
-    <cellStyle name="常规 3 2 2" xfId="15"/>
-    <cellStyle name="常规 2 5" xfId="16"/>
-    <cellStyle name="常规 12" xfId="17"/>
-    <cellStyle name="货币[0]" xfId="18" builtinId="7"/>
-    <cellStyle name="常规 2 4" xfId="19"/>
-    <cellStyle name="常规 11" xfId="20"/>
-    <cellStyle name="常规 3 2 3" xfId="21"/>
-    <cellStyle name="常规 2 6" xfId="22"/>
-    <cellStyle name="常规 2 4 2" xfId="23"/>
-    <cellStyle name="常规 13" xfId="24"/>
-    <cellStyle name="常规 3 7" xfId="25"/>
-    <cellStyle name="常规 2" xfId="26"/>
-    <cellStyle name="常规 3 3 4" xfId="27"/>
-    <cellStyle name="常规 3 2 2 3" xfId="28"/>
-    <cellStyle name="常规 2 2" xfId="29"/>
-    <cellStyle name="常规 2 2 2" xfId="30"/>
-    <cellStyle name="常规 2 2 4" xfId="31"/>
-    <cellStyle name="常规 2 2 2 2" xfId="32"/>
-    <cellStyle name="常规 2 2 5" xfId="33"/>
-    <cellStyle name="常规 2 2 2 3" xfId="34"/>
-    <cellStyle name="常规 2 2 2 4" xfId="35"/>
-    <cellStyle name="常规 2 2 3" xfId="36"/>
-    <cellStyle name="常规 2 3 2" xfId="37"/>
-    <cellStyle name="常规 3 2 4" xfId="38"/>
-    <cellStyle name="常规 2 7" xfId="39"/>
-    <cellStyle name="常规 2 4 3" xfId="40"/>
-    <cellStyle name="常规 2 3 2 2" xfId="41"/>
-    <cellStyle name="常规 3 2 5" xfId="42"/>
-    <cellStyle name="常规 2 4 4" xfId="43"/>
-    <cellStyle name="常规 2 3 2 3" xfId="44"/>
-    <cellStyle name="常规 2 3 2 4" xfId="45"/>
-    <cellStyle name="常规 2 3 3" xfId="46"/>
-    <cellStyle name="常规 2 3 4" xfId="47"/>
-    <cellStyle name="常规 2 3 5" xfId="48"/>
-    <cellStyle name="常规 3" xfId="49"/>
-    <cellStyle name="常规 3 3 5" xfId="50"/>
-    <cellStyle name="常规 3 2 2 4" xfId="51"/>
-    <cellStyle name="常规 3 3" xfId="52"/>
-    <cellStyle name="常规 3 5" xfId="53"/>
-    <cellStyle name="常规 3 3 2" xfId="54"/>
-    <cellStyle name="常规 3 3 2 2" xfId="55"/>
-    <cellStyle name="常规 3 3 2 3" xfId="56"/>
-    <cellStyle name="常规 3 3 2 4" xfId="57"/>
-    <cellStyle name="常规 3 4" xfId="58"/>
-    <cellStyle name="常规 3 4 3" xfId="59"/>
-    <cellStyle name="常规 4" xfId="60"/>
-    <cellStyle name="常规 4 2" xfId="61"/>
-    <cellStyle name="常规 4 4" xfId="62"/>
-    <cellStyle name="常规 4 2 2" xfId="63"/>
-    <cellStyle name="常规 6 4" xfId="64"/>
-    <cellStyle name="常规 4 4 2" xfId="65"/>
-    <cellStyle name="常规 4 2 2 2" xfId="66"/>
-    <cellStyle name="常规 6 5" xfId="67"/>
-    <cellStyle name="常规 4 4 3" xfId="68"/>
-    <cellStyle name="常规 4 2 2 3" xfId="69"/>
-    <cellStyle name="常规 4 4 4" xfId="70"/>
-    <cellStyle name="常规 4 2 2 4" xfId="71"/>
-    <cellStyle name="常规 4 6" xfId="72"/>
-    <cellStyle name="常规 4 2 4" xfId="73"/>
-    <cellStyle name="常规 4 7" xfId="74"/>
-    <cellStyle name="常规 4 2 5" xfId="75"/>
-    <cellStyle name="常规 4 3" xfId="76"/>
-    <cellStyle name="常规 5 4" xfId="77"/>
-    <cellStyle name="常规 4 3 2" xfId="78"/>
-    <cellStyle name="常规 4 3 2 2" xfId="79"/>
-    <cellStyle name="常规 4 3 2 3" xfId="80"/>
-    <cellStyle name="常规 4 3 2 4" xfId="81"/>
-    <cellStyle name="常规 5 5" xfId="82"/>
-    <cellStyle name="常规 4 3 3" xfId="83"/>
-    <cellStyle name="常规 4 3 4" xfId="84"/>
-    <cellStyle name="常规 4 3 5" xfId="85"/>
-    <cellStyle name="常规 5" xfId="86"/>
-    <cellStyle name="常规 5 2" xfId="87"/>
-    <cellStyle name="常规 5 2 2" xfId="88"/>
-    <cellStyle name="常规 5 2 3" xfId="89"/>
-    <cellStyle name="常规 5 2 4" xfId="90"/>
-    <cellStyle name="常规 5 3" xfId="91"/>
-    <cellStyle name="常规 6" xfId="92"/>
-    <cellStyle name="常规 6 2" xfId="93"/>
-    <cellStyle name="常规 6 2 2" xfId="94"/>
-    <cellStyle name="常规 6 2 3" xfId="95"/>
-    <cellStyle name="常规 6 2 4" xfId="96"/>
-    <cellStyle name="常规 6 3" xfId="97"/>
-    <cellStyle name="常规 7" xfId="98"/>
-    <cellStyle name="常规 7 2" xfId="99"/>
-    <cellStyle name="常规 7 3" xfId="100"/>
-    <cellStyle name="常规 7 4" xfId="101"/>
-    <cellStyle name="常规 8" xfId="102"/>
-    <cellStyle name="常规 9" xfId="103"/>
+    <cellStyle name="常规 3 7" xfId="20"/>
+    <cellStyle name="常规 4" xfId="55"/>
+    <cellStyle name="常规 4 2" xfId="56"/>
+    <cellStyle name="常规 4 2 2" xfId="58"/>
+    <cellStyle name="常规 4 2 2 2" xfId="61"/>
+    <cellStyle name="常规 4 2 2 3" xfId="64"/>
+    <cellStyle name="常规 4 2 2 4" xfId="66"/>
+    <cellStyle name="常规 4 2 3" xfId="5"/>
+    <cellStyle name="常规 4 2 4" xfId="68"/>
+    <cellStyle name="常规 4 2 5" xfId="70"/>
+    <cellStyle name="常规 4 3" xfId="71"/>
+    <cellStyle name="常规 4 3 2" xfId="73"/>
+    <cellStyle name="常规 4 3 2 2" xfId="74"/>
+    <cellStyle name="常规 4 3 2 3" xfId="75"/>
+    <cellStyle name="常规 4 3 2 4" xfId="76"/>
+    <cellStyle name="常规 4 3 3" xfId="78"/>
+    <cellStyle name="常规 4 3 4" xfId="79"/>
+    <cellStyle name="常规 4 3 5" xfId="80"/>
+    <cellStyle name="常规 4 4" xfId="57"/>
+    <cellStyle name="常规 4 4 2" xfId="60"/>
+    <cellStyle name="常规 4 4 3" xfId="63"/>
+    <cellStyle name="常规 4 4 4" xfId="65"/>
+    <cellStyle name="常规 4 5" xfId="4"/>
+    <cellStyle name="常规 4 6" xfId="67"/>
+    <cellStyle name="常规 4 7" xfId="69"/>
+    <cellStyle name="常规 5" xfId="81"/>
+    <cellStyle name="常规 5 2" xfId="82"/>
+    <cellStyle name="常规 5 2 2" xfId="83"/>
+    <cellStyle name="常规 5 2 3" xfId="84"/>
+    <cellStyle name="常规 5 2 4" xfId="85"/>
+    <cellStyle name="常规 5 3" xfId="86"/>
+    <cellStyle name="常规 5 4" xfId="72"/>
+    <cellStyle name="常规 5 5" xfId="77"/>
+    <cellStyle name="常规 6" xfId="87"/>
+    <cellStyle name="常规 6 2" xfId="88"/>
+    <cellStyle name="常规 6 2 2" xfId="89"/>
+    <cellStyle name="常规 6 2 3" xfId="90"/>
+    <cellStyle name="常规 6 2 4" xfId="91"/>
+    <cellStyle name="常规 6 3" xfId="92"/>
+    <cellStyle name="常规 6 4" xfId="59"/>
+    <cellStyle name="常规 6 5" xfId="62"/>
+    <cellStyle name="常规 7" xfId="93"/>
+    <cellStyle name="常规 7 2" xfId="94"/>
+    <cellStyle name="常规 7 3" xfId="95"/>
+    <cellStyle name="常规 7 4" xfId="96"/>
+    <cellStyle name="常规 8" xfId="97"/>
+    <cellStyle name="常规 9" xfId="98"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -855,6 +943,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -887,16 +976,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="10.625" customWidth="1"/>
@@ -909,7 +998,7 @@
     <col min="15" max="15" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -977,7 +1066,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -995,7 +1084,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1013,7 +1102,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1031,7 +1120,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1049,7 +1138,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1067,7 +1156,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1085,7 +1174,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1103,7 +1192,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1121,7 +1210,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1139,7 +1228,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1157,44 +1246,68 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:P1"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>